--- a/dell/passed/C1XM2S2_hwinvent_report_hw_passed_report.xlsx
+++ b/dell/passed/C1XM2S2_hwinvent_report_hw_passed_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>ServiceTag</t>
   </si>
@@ -22,6 +22,12 @@
     <t>C1XM2S2</t>
   </si>
   <si>
+    <t>HostName</t>
+  </si>
+  <si>
+    <t>R33-L11</t>
+  </si>
+  <si>
     <t>Inventory date</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>PCI device</t>
   </si>
   <si>
-    <t>Sys. mem. size</t>
+    <t>Memory tot.size</t>
   </si>
   <si>
     <t>Memory serial</t>
@@ -67,7 +73,7 @@
     <t>2CC8A9C2</t>
   </si>
   <si>
-    <t>Memory module P/N</t>
+    <t>Memory P/Ns</t>
   </si>
   <si>
     <t>Memory slot</t>
@@ -106,10 +112,10 @@
     <t>HDD fw</t>
   </si>
   <si>
-    <t>HDD slot population</t>
-  </si>
-  <si>
-    <t>PSU P/Nr</t>
+    <t>HDD slot pop.</t>
+  </si>
+  <si>
+    <t>PSU P/Ns</t>
   </si>
   <si>
     <t>PSU serial</t>
@@ -481,31 +487,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,357 +526,363 @@
         <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="E4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="E8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4">
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4">
-      <c r="D23" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="E10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="E12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="E13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="E14" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
